--- a/Excel/TI/Mon_TI_2024_04_09.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,16 @@
           <t>M+3_team</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>M+4_H_A</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>M+4_team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -616,7 +626,11 @@
           <t>Joel Embiid</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>C</t>
@@ -624,16 +638,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>50.4</v>
+        <v>36.6</v>
       </c>
       <c r="G2" t="n">
-        <v>60.3</v>
+        <v>58.5</v>
       </c>
       <c r="H2" t="n">
-        <v>59.9</v>
+        <v>59.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -645,24 +659,22 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
         <v>37</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>41</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>-</t>
@@ -674,7 +686,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -724,14 +736,16 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -744,7 +758,11 @@
           <t>Nikola Jokic</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>C</t>
@@ -752,16 +770,16 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="G3" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="H3" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -773,30 +791,30 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
+        <v>46</v>
+      </c>
+      <c r="O3" t="n">
         <v>64</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>67</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>63</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>48</v>
       </c>
-      <c r="R3" t="n">
-        <v>45</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -854,16 +872,26 @@
           <t>SAS</t>
         </is>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -874,159 +902,169 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>47.2</v>
+        <v>38.4</v>
       </c>
       <c r="G4" t="n">
-        <v>45.9</v>
+        <v>43.2</v>
       </c>
       <c r="H4" t="n">
-        <v>42.3</v>
+        <v>37.8</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R4" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-1.2</v>
+        <v>0.2</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>69</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>53.4</v>
       </c>
       <c r="G5" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="H5" t="n">
-        <v>37.6</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O5" t="n">
         <v>42</v>
@@ -1035,10 +1073,10 @@
         <v>36</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R5" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1046,7 +1084,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-0.2</v>
+        <v>-2.4</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1057,7 +1095,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1066,27 +1104,23 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>30</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1095,29 +1129,39 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>DET</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1128,89 +1172,91 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>43.2</v>
+        <v>30.4</v>
       </c>
       <c r="G6" t="n">
-        <v>40.7</v>
+        <v>34.3</v>
       </c>
       <c r="H6" t="n">
-        <v>36.5</v>
+        <v>32.7</v>
       </c>
       <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42</v>
+      </c>
+      <c r="O6" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>36</v>
-      </c>
-      <c r="O6" t="n">
-        <v>50</v>
-      </c>
       <c r="P6" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R6" t="n">
+        <v>39</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-2.2</v>
+        <v>0.9</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
-        <v>40</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1219,7 +1265,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1229,66 +1275,84 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Tyrese Maxey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>35.2</v>
+        <v>37.6</v>
       </c>
       <c r="G7" t="n">
         <v>34.3</v>
       </c>
       <c r="H7" t="n">
-        <v>32.9</v>
+        <v>35.5</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O7" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P7" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>43</v>
-      </c>
-      <c r="R7" t="n">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1307,45 +1371,41 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>10</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>55</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1355,74 +1415,84 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>37.4</v>
+        <v>27.2</v>
       </c>
       <c r="G8" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>35.4</v>
+        <v>29.9</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>60</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>42</v>
+      <c r="P8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T8" t="n">
@@ -1432,12 +1502,12 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1446,23 +1516,27 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD8" t="n">
-        <v>55</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1471,19 +1545,21 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1504,51 +1580,51 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>29.4</v>
       </c>
       <c r="G9" t="n">
-        <v>34.1</v>
+        <v>32.6</v>
       </c>
       <c r="H9" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
+        <v>36</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21</v>
+      </c>
+      <c r="P9" t="n">
         <v>35</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>27</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>28</v>
       </c>
-      <c r="Q9" t="n">
-        <v>32</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8</v>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1610,63 +1686,73 @@
           <t>ATL</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>33.3</v>
+        <v>31.8</v>
       </c>
       <c r="H10" t="n">
-        <v>33.4</v>
+        <v>36.3</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O10" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P10" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1674,7 +1760,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-0.6</v>
+        <v>-1.9</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1685,7 +1771,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1694,23 +1780,27 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD10" t="n">
-        <v>27</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1719,7 +1809,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1729,19 +1819,29 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1752,45 +1852,43 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>34.2</v>
       </c>
       <c r="G11" t="n">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
       <c r="H11" t="n">
-        <v>36.1</v>
+        <v>26</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
       <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="O11" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P11" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>23</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>30</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1798,7 +1896,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -1809,7 +1907,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1818,7 +1916,7 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1847,76 +1945,78 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>TOR</t>
-        </is>
-      </c>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>32.8</v>
       </c>
       <c r="G12" t="n">
-        <v>32.1</v>
+        <v>31.3</v>
       </c>
       <c r="H12" t="n">
-        <v>34.5</v>
+        <v>33.4</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O12" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P12" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R12" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1924,7 +2024,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -1935,7 +2035,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1944,23 +2044,27 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD12" t="n">
-        <v>55</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1969,17 +2073,27 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
@@ -2002,16 +2116,16 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>37.8</v>
       </c>
       <c r="G13" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="H13" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2020,29 +2134,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N13" t="n">
+        <v>30</v>
       </c>
       <c r="O13" t="n">
+        <v>36</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>46</v>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>-</t>
@@ -2054,7 +2164,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2114,63 +2224,75 @@
           <t>MIA</t>
         </is>
       </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>28.4</v>
+        <v>34.4</v>
       </c>
       <c r="G14" t="n">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="H14" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>31</v>
-      </c>
-      <c r="P14" t="n">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q14" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R14" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2178,7 +2300,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-1.6</v>
+        <v>2.8</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2189,7 +2311,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2229,7 +2351,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2239,19 +2361,29 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2262,43 +2394,51 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>24.8</v>
       </c>
-      <c r="G15" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>33.2</v>
-      </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>41</v>
-      </c>
-      <c r="O15" t="n">
-        <v>14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27</v>
-      </c>
-      <c r="R15" t="n">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2306,7 +2446,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2317,36 +2457,32 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>16</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>34</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -2355,17 +2491,27 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2534,19 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>34.6</v>
+        <v>29.2</v>
       </c>
       <c r="G16" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="H16" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -2412,19 +2558,17 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
         <v>18</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>66</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>12</v>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>-</t>
@@ -2436,7 +2580,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2496,63 +2640,75 @@
           <t>MIN</t>
         </is>
       </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>28.4</v>
+        <v>24.8</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="H17" t="n">
-        <v>25.3</v>
+        <v>30.8</v>
       </c>
       <c r="I17" t="n">
         <v>11</v>
       </c>
       <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>35</v>
-      </c>
-      <c r="P17" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>33</v>
-      </c>
       <c r="R17" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2560,7 +2716,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2571,7 +2727,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2580,7 +2736,7 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2614,27 +2770,41 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>F</t>
@@ -2642,104 +2812,96 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>31.4</v>
+        <v>23.6</v>
       </c>
       <c r="G18" t="n">
-        <v>28.7</v>
+        <v>27.9</v>
       </c>
       <c r="H18" t="n">
-        <v>30.2</v>
+        <v>24.7</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N18" t="n">
+        <v>29</v>
       </c>
       <c r="O18" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P18" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="Q18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>29</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>3</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -2749,68 +2911,78 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>25.4</v>
+        <v>21.4</v>
       </c>
       <c r="G19" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="H19" t="n">
-        <v>24.1</v>
+        <v>18.8</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="R19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2818,7 +2990,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -2829,7 +3001,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2838,32 +3010,36 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB19" t="n">
-        <v>7</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD19" t="n">
-        <v>20</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -2873,19 +3049,29 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2896,64 +3082,62 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="H20" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P20" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2962,7 +3146,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2986,12 +3170,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3001,7 +3185,17 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>NYK</t>
         </is>
       </c>
     </row>
@@ -3024,51 +3218,51 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>21.4</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="H21" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
       <c r="N21" t="n">
+        <v>23</v>
+      </c>
+      <c r="O21" t="n">
+        <v>36</v>
+      </c>
+      <c r="P21" t="n">
         <v>19</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>31</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>26</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>29</v>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3118,31 +3312,29 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>G</t>
@@ -3150,62 +3342,64 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>28.2</v>
+        <v>33.6</v>
       </c>
       <c r="G22" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="H22" t="n">
-        <v>18.8</v>
+        <v>33.6</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="n">
-        <v>12</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O22" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P22" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="Q22" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="R22" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-1.6</v>
+        <v>-0.7</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3214,27 +3408,23 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>44</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>52</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3243,29 +3433,39 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
           <t>UTA</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3276,40 +3476,40 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>20.6</v>
+        <v>28.8</v>
       </c>
       <c r="G23" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="H23" t="n">
-        <v>25.6</v>
+        <v>26.6</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>7</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R23" t="n">
         <v>21</v>
@@ -3320,7 +3520,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3331,32 +3531,34 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD23" t="n">
-        <v>18</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -3365,95 +3567,105 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>29.8</v>
       </c>
       <c r="G24" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2</v>
+        <v>20.3</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
         <v>2</v>
       </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
       <c r="N24" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O24" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R24" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3462,63 +3674,61 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>11</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>TOR</t>
-        </is>
-      </c>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Probable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3528,45 +3738,45 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="H25" t="n">
-        <v>27.8</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q25" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R25" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -3574,7 +3784,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -3585,24 +3795,24 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -3610,7 +3820,7 @@
         </is>
       </c>
       <c r="AD25" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -3624,124 +3834,134 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>ORL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>31.6</v>
+        <v>20.2</v>
       </c>
       <c r="G26" t="n">
-        <v>27.2</v>
+        <v>25.3</v>
       </c>
       <c r="H26" t="n">
-        <v>33.6</v>
+        <v>29.9</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P26" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R26" t="n">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD26" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -3751,94 +3971,104 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>22.4</v>
+        <v>31.4</v>
       </c>
       <c r="G27" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="H27" t="n">
-        <v>24.6</v>
+        <v>21.4</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q27" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="R27" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-1.4</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -3846,7 +4076,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3854,7 +4084,7 @@
         </is>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -3863,17 +4093,27 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>SAS</t>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -3885,54 +4125,54 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>34.6</v>
+        <v>15.2</v>
       </c>
       <c r="G28" t="n">
-        <v>26.4</v>
+        <v>25.1</v>
       </c>
       <c r="H28" t="n">
-        <v>20.1</v>
+        <v>25.2</v>
       </c>
       <c r="I28" t="n">
         <v>13</v>
       </c>
       <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P28" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R28" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3940,7 +4180,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>-2.7</v>
+        <v>0.4</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -3960,23 +4200,23 @@
         </is>
       </c>
       <c r="Z28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
         <v>23</v>
       </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB28" t="n">
-        <v>11</v>
-      </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -3990,27 +4230,33 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Terry Rozier</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>G</t>
@@ -4018,79 +4264,81 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>19.8</v>
+        <v>28.4</v>
       </c>
       <c r="G29" t="n">
-        <v>26</v>
+        <v>24.3</v>
       </c>
       <c r="H29" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="I29" t="n">
         <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="R29" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>-1.1</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB29" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -4104,134 +4352,152 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>32.4</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="H30" t="n">
-        <v>21.3</v>
+        <v>28.6</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O30" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P30" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q30" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R30" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>-1.7</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB30" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD30" t="n">
-        <v>12</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4241,85 +4507,95 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>17.4</v>
+        <v>23.8</v>
       </c>
       <c r="G31" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="H31" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="O31" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P31" t="n">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4328,7 +4604,7 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -4336,15 +4612,17 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD31" t="n">
-        <v>14</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -4353,7 +4631,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -4363,19 +4641,29 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4386,43 +4674,49 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>19.4</v>
+        <v>26</v>
       </c>
       <c r="G32" t="n">
-        <v>24.9</v>
+        <v>23.1</v>
       </c>
       <c r="H32" t="n">
-        <v>30.1</v>
+        <v>26.9</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O32" t="n">
-        <v>9</v>
-      </c>
-      <c r="P32" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>15</v>
-      </c>
-      <c r="R32" t="n">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -4430,7 +4724,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -4441,7 +4735,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4450,15 +4744,15 @@
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -4477,7 +4771,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -4487,19 +4781,29 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4510,71 +4814,71 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>24.6</v>
+        <v>27.8</v>
       </c>
       <c r="G33" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="H33" t="n">
-        <v>28.6</v>
+        <v>21.5</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O33" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P33" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q33" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R33" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -4603,7 +4907,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -4613,22 +4917,36 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Andrew Wiggins</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>F</t>
@@ -4636,62 +4954,66 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="H34" t="n">
-        <v>21.1</v>
+        <v>18.3</v>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
-      <c r="N34" t="n">
-        <v>18</v>
-      </c>
-      <c r="O34" t="n">
-        <v>27</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="R34" t="n">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4700,27 +5022,23 @@
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD34" t="n">
+        <v>38</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -4729,80 +5047,86 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>23.6</v>
       </c>
       <c r="G35" t="n">
-        <v>21.1</v>
+        <v>15.3</v>
       </c>
       <c r="H35" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O35" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P35" t="n">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R35" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -4810,7 +5134,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>-0.7</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -4821,41 +5145,43 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD35" t="n">
-        <v>38</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -4865,22 +5191,36 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>G</t>
@@ -4888,22 +5228,22 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>17.4</v>
+        <v>25.4</v>
       </c>
       <c r="G36" t="n">
-        <v>13.7</v>
+        <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>18.7</v>
+        <v>37.6</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -4911,56 +5251,66 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="n">
-        <v>24</v>
-      </c>
-      <c r="O36" t="n">
-        <v>25</v>
-      </c>
-      <c r="P36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>9</v>
-      </c>
-      <c r="R36" t="n">
-        <v>6</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -4979,55 +5329,69 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G37" t="n">
-        <v>9.699999999999999</v>
+        <v>34.2</v>
       </c>
       <c r="H37" t="n">
-        <v>16.4</v>
+        <v>37.4</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5040,17 +5404,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O37" t="n">
-        <v>13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>21</v>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -5058,7 +5430,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -5069,18 +5441,16 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>27</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -5104,34 +5474,44 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5141,33 +5521,33 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>25.4</v>
+        <v>34.6</v>
       </c>
       <c r="G38" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="H38" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -5189,46 +5569,44 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R38" t="n">
+        <v>28</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>-0.8</v>
+        <v>2.1</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -5247,29 +5625,39 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5279,77 +5667,73 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>59</v>
+      </c>
+      <c r="R39" t="n">
         <v>44</v>
       </c>
-      <c r="G39" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.1</v>
+        <v>-1.6</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5358,36 +5742,32 @@
         </is>
       </c>
       <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD39" t="n">
         <v>27</v>
       </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -5397,19 +5777,29 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5424,28 +5814,28 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>34.6</v>
+        <v>33.2</v>
       </c>
       <c r="G40" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="H40" t="n">
         <v>34.1</v>
       </c>
-      <c r="H40" t="n">
-        <v>37.4</v>
-      </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -5457,91 +5847,105 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>53</v>
-      </c>
-      <c r="R40" t="n">
-        <v>26</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD40" t="n">
+        <v>35</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5551,76 +5955,78 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>27.2</v>
+        <v>30.6</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="H41" t="n">
-        <v>29.9</v>
+        <v>30.7</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>2</v>
       </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="n">
-        <v>28</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P41" t="n">
+        <v>49</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>0.8</v>
+        <v>-2.2</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z41" t="n">
@@ -5628,54 +6034,60 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>16</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD41" t="n">
+        <v>32</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>DEN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5685,47 +6097,53 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>39.2</v>
+        <v>37.4</v>
       </c>
       <c r="G42" t="n">
-        <v>33.5</v>
+        <v>31.2</v>
       </c>
       <c r="H42" t="n">
-        <v>32.1</v>
+        <v>35.1</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>59</v>
-      </c>
-      <c r="P42" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>38</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -5734,47 +6152,49 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>-1.6</v>
+        <v>3</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD42" t="n">
-        <v>27</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -5783,7 +6203,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -5793,19 +6213,29 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>GSW</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5815,18 +6245,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>33.2</v>
+        <v>27.8</v>
       </c>
       <c r="G43" t="n">
-        <v>33.1</v>
+        <v>31.1</v>
       </c>
       <c r="H43" t="n">
-        <v>34.1</v>
+        <v>35</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5874,7 +6304,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.2</v>
+        <v>-2.2</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -5885,7 +6315,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5894,23 +6324,27 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB43" t="n">
-        <v>48</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD43" t="n">
-        <v>35</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -5919,29 +6353,39 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5951,94 +6395,104 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>30.6</v>
+        <v>24.6</v>
       </c>
       <c r="G44" t="n">
-        <v>32.5</v>
+        <v>28.5</v>
       </c>
       <c r="H44" t="n">
-        <v>30.7</v>
+        <v>32.2</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>49</v>
-      </c>
-      <c r="O44" t="n">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q44" t="n">
-        <v>28</v>
-      </c>
-      <c r="R44" t="n">
-        <v>10</v>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>-2.2</v>
+        <v>-3.1</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD44" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -6047,15 +6501,25 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
         <is>
           <t>LAL</t>
         </is>
@@ -6064,12 +6528,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6084,22 +6548,22 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>37.4</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>31.2</v>
+        <v>27.3</v>
       </c>
       <c r="H45" t="n">
-        <v>35.1</v>
+        <v>27.8</v>
       </c>
       <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
         <v>4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>2</v>
@@ -6123,10 +6587,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R45" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -6134,7 +6598,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -6145,7 +6609,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -6154,7 +6618,7 @@
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -6162,17 +6626,15 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD45" t="n">
+        <v>37</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -6181,29 +6643,31 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>LAC</t>
-        </is>
-      </c>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6213,24 +6677,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>27.8</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>31.1</v>
+        <v>26.3</v>
       </c>
       <c r="H46" t="n">
-        <v>35</v>
+        <v>27.7</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -6272,7 +6736,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>-2.2</v>
+        <v>3.9</v>
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -6283,16 +6747,16 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -6316,12 +6780,12 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -6331,19 +6795,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>SAC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6358,106 +6832,106 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>24.8</v>
+        <v>7.2</v>
       </c>
       <c r="G47" t="n">
-        <v>29.9</v>
+        <v>9.4</v>
       </c>
       <c r="H47" t="n">
-        <v>24.6</v>
+        <v>16.3</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>12</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>13</v>
+      </c>
+      <c r="R47" t="n">
         <v>6</v>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>-0.4</v>
+        <v>1.3</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z47" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB47" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD47" t="n">
-        <v>34</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -6467,285 +6941,17 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>NOP</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Brandon Ingram</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB48" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Jerami Grant</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>21</v>
-      </c>
-      <c r="G49" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>HOU</t>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>DAL</t>
         </is>
       </c>
     </row>
